--- a/translations/translation_est.xlsx
+++ b/translations/translation_est.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcadmin\Documents\dok\TARU\PROJEKTID\EEGManyLabs\Task\spotlight_replication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcadmin\Documents\dok\TARU\PROJEKTID\EEGManyLabs\Task\spotlight_replication\translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC21AF51-9E09-4596-9F3B-BA9488377F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057B97CB-6CAE-40E3-BF9D-F472F85977D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,36 +25,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>intr_txt</t>
-  </si>
-  <si>
-    <t>left_translation: vasak</t>
-  </si>
-  <si>
-    <t>right_translation: parem</t>
-  </si>
-  <si>
-    <t>bText_training: Algavad treeningesitused \n\n Jätkamiseks vajuta palun tühikut…</t>
-  </si>
-  <si>
-    <t>bText_experiment: Algab katse \n\n Jätkamiseks vajuta palun tühikut…</t>
-  </si>
-  <si>
-    <t>bye: Katse on läbi. Tänan katses osalemast!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cond_text_attend: Keskendu palun asukohtadele: </t>
-  </si>
-  <si>
-    <t>cond_text_hand: Vastamiskäsi:</t>
-  </si>
-  <si>
-    <t>see instructions in translation_lang.xlsx</t>
-  </si>
-  <si>
-    <t>general_intro_1: general intro to the task</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>translated_message</t>
+  </si>
+  <si>
+    <t>general_intro_1</t>
+  </si>
+  <si>
+    <t>general_intro_2</t>
+  </si>
+  <si>
+    <t>general_intro_3</t>
+  </si>
+  <si>
+    <t>bText_training</t>
+  </si>
+  <si>
+    <t>bText_experiment</t>
+  </si>
+  <si>
+    <t>cond_text_attend</t>
+  </si>
+  <si>
+    <t>cond_text_hand</t>
+  </si>
+  <si>
+    <t>gaze</t>
+  </si>
+  <si>
+    <t>bye</t>
+  </si>
+  <si>
+    <t>left_translation</t>
+  </si>
+  <si>
+    <t>right_translation</t>
+  </si>
+  <si>
+    <t>vasak</t>
+  </si>
+  <si>
+    <t>parem</t>
+  </si>
+  <si>
+    <t>Vastamiskäsi:</t>
+  </si>
+  <si>
+    <t>Algab katse \n\n Jätkamiseks vajuta palun tühikut…</t>
+  </si>
+  <si>
+    <t>Enne põhikatse juurde asumist, on teil võimalus katset 4 lühemas plokis harjutada. Harjutusplokid aitavad teil ülesandega paremini tuttavaks saada.\n\n
+Harjutusseeriate ajal:\n
+Kuulete tagasiside tooni, kui vajutate kaheksate paari nägemisel tühikut.\n
+Julgustame teid eksperimentaatorilt täiendavaid küsimusi küsima; seda nii praegu kui ka harjutuskatsete ajal.\n\n
+Katsega alustamiseks vajutage palu "tühikut"…</t>
+  </si>
+  <si>
+    <t>Tere tulemast ja aitäh, et nõustusite osalema meie eksperimendis!\n\n
+See uuring on osa rahvusvahelisest algatusest #EEGManyLabs, mille eesmärk on uurida ligikaudu 20 mõjuka kognitiiv-neuroteadusliku EEG-uuringu korratavust. Selles eksperimendis kordame ja laiendame Professor Matthias M. Mülleri ja tema kolleegide 2003. aastal läbi viidud ruumilise tähelepanu uuringut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keskenduge palun asukohtadele: </t>
+  </si>
+  <si>
+    <t>palun\n fikseerige\n pilk siin</t>
+  </si>
+  <si>
+    <t>Ülevaade ülesandest:\n\n
+Selles eksperimendis näete ekraanil nelja valget ruutu. Teie ülesanne on viia tähelepanu kahele neist ruutudest ja eirata ülejäänusid. Igal seerial ilmub neli objekti, kaks kummalegi poole fikseerimisristi. Teie ülesandeks on tühikuklahvi vajutusega märku anda iga kord, kui number 8 ilmub korraga mõlemasse jälgitavasse ruutu.\n\n
+Oluline on hoida pilk kogu stiimuli esituse ajal ekraani keskel paikneval fikseerimisristil, isegi kui on kiusatus pilk otse eemal paiknevatele fookusobjektidele viia.</t>
+  </si>
+  <si>
+    <t>Katse on läbi. Suur tänu katses osalemast!</t>
+  </si>
+  <si>
+    <t>Katse struktuur:\n\n
+Katse koosneb 12 plokist.\n
+Iga ploki alguses teavitatakse teid:\n
+(1) Millistele ruutudele tähelepanu pöörata.\n
+(2) Millist kätt vastamiseks kasutada.\n
+Iga ploki poole peal palutakse teil käsi vahetada.</t>
   </si>
 </sst>
 </file>
@@ -90,8 +144,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,65 +429,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="104.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/translations/translation_est.xlsx
+++ b/translations/translation_est.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcadmin\Documents\dok\TARU\PROJEKTID\EEGManyLabs\Task\spotlight_replication\translations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057B97CB-6CAE-40E3-BF9D-F472F85977D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDCB3A6-BB74-4C10-A695-4A454A53E11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,10 +85,6 @@
 Katsega alustamiseks vajutage palu "tühikut"…</t>
   </si>
   <si>
-    <t>Tere tulemast ja aitäh, et nõustusite osalema meie eksperimendis!\n\n
-See uuring on osa rahvusvahelisest algatusest #EEGManyLabs, mille eesmärk on uurida ligikaudu 20 mõjuka kognitiiv-neuroteadusliku EEG-uuringu korratavust. Selles eksperimendis kordame ja laiendame Professor Matthias M. Mülleri ja tema kolleegide 2003. aastal läbi viidud ruumilise tähelepanu uuringut.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Keskenduge palun asukohtadele: </t>
   </si>
   <si>
@@ -109,6 +105,10 @@
 (1) Millistele ruutudele tähelepanu pöörata.\n
 (2) Millist kätt vastamiseks kasutada.\n
 Iga ploki poole peal palutakse teil käsi vahetada.</t>
+  </si>
+  <si>
+    <t>Tere tulemast ja aitäh, et nõustusite osalema meie eksperimendis!\n\n
+See uuring on osa rahvusvahelisest algatusest #EEGManyLabs, mille eesmärk on uurida ligikaudu 20 mõjuka kognitiiv-neuroteadusliku EEG-uuringu korratavust. Selles eksperimendis kordame ja laiendame professor Matthias M. Mülleri ja tema kolleegide 2003. aastal läbi viidud ruumilise tähelepanu uuringut.</t>
   </si>
 </sst>
 </file>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
